--- a/Instructions_GrafWebsiteBooks.xlsx
+++ b/Instructions_GrafWebsiteBooks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/Documents/GitHub/GrafWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{302C7DB8-87AD-DC48-B1F1-9F05361394EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0FB77EE7-6D3F-7048-924C-5132897C496D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="5700" windowWidth="30500" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10740" yWindow="2120" windowWidth="30500" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="212">
   <si>
     <t>Projects</t>
   </si>
@@ -91,15 +91,9 @@
     <t>Any extra info</t>
   </si>
   <si>
-    <t>Index_1</t>
-  </si>
-  <si>
     <t>Basepair sequence wriiten in AGCT format</t>
   </si>
   <si>
-    <t>Index_2</t>
-  </si>
-  <si>
     <t>Project_Name</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>Date_Ownership_Transferred</t>
   </si>
   <si>
-    <t>format TBD</t>
-  </si>
-  <si>
     <t>Run_Date</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>Who_did_Run</t>
   </si>
   <si>
-    <t>Who_did_PCR</t>
-  </si>
-  <si>
     <t>Extractor</t>
   </si>
   <si>
@@ -211,9 +199,6 @@
     <t>Tissue or collection type    example: bladder, sterivex, gillSwab</t>
   </si>
   <si>
-    <t>MiSeq_Run</t>
-  </si>
-  <si>
     <t>to delete</t>
   </si>
   <si>
@@ -505,15 +490,9 @@
     <t>Grant that paid for fee</t>
   </si>
   <si>
-    <t>Date fee billed</t>
-  </si>
-  <si>
     <t>yes' or 'no' based on whether the fee has been collected</t>
   </si>
   <si>
-    <t>Date sample collected</t>
-  </si>
-  <si>
     <t>Leave empty</t>
   </si>
   <si>
@@ -590,6 +569,93 @@
   </si>
   <si>
     <t>GrafJ</t>
+  </si>
+  <si>
+    <t>Project_Status</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Date_Prepared</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Index2</t>
+  </si>
+  <si>
+    <t>Amplicon_Size</t>
+  </si>
+  <si>
+    <t>Library_Concentration</t>
+  </si>
+  <si>
+    <t>Run2_ID</t>
+  </si>
+  <si>
+    <t>Library_Preparer</t>
+  </si>
+  <si>
+    <t>Run_Status</t>
+  </si>
+  <si>
+    <t>Taq_Name</t>
+  </si>
+  <si>
+    <t>Taq_Lot</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>Date fee billed in yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>Date sample collected in yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>1req</t>
+  </si>
+  <si>
+    <t>2req</t>
+  </si>
+  <si>
+    <t>3req</t>
+  </si>
+  <si>
+    <t>5req</t>
+  </si>
+  <si>
+    <t>4req</t>
+  </si>
+  <si>
+    <t>9auto</t>
+  </si>
+  <si>
+    <t>10auto</t>
+  </si>
+  <si>
+    <t>11auto</t>
+  </si>
+  <si>
+    <t>12auto</t>
+  </si>
+  <si>
+    <t>6req</t>
+  </si>
+  <si>
+    <t>9req</t>
+  </si>
+  <si>
+    <t>13req</t>
+  </si>
+  <si>
+    <t>18req</t>
   </si>
 </sst>
 </file>
@@ -627,7 +693,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,6 +704,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -653,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -661,6 +733,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA127"/>
+  <dimension ref="A1:AA135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1018,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1063,54 +1137,54 @@
         <v>15</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="W1" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>17</v>
@@ -1122,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -1132,25 +1206,25 @@
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4">
+        <v>200</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="J3" s="4">
         <v>2</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>17</v>
@@ -1162,7 +1236,7 @@
         <v>17</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
@@ -1172,10 +1246,10 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="G4" s="4">
         <v>3</v>
@@ -1184,10 +1258,10 @@
         <v>17</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -1199,11 +1273,14 @@
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4">
-        <v>5</v>
+      <c r="D5" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="G5" s="4">
         <v>4</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="L5" s="3">
         <v>4</v>
@@ -1219,7 +1296,7 @@
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1231,7 +1308,7 @@
       <c r="I6" s="4"/>
       <c r="M6" s="4"/>
       <c r="S6" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -1241,7 +1318,7 @@
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1261,19 +1338,19 @@
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4</v>
+        <v>66</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="G8" s="4">
         <v>7</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -1283,7 +1360,7 @@
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G9" s="4">
         <v>8</v>
@@ -1291,18 +1368,18 @@
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G10" s="4">
         <v>9</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G11" s="4">
         <v>10</v>
@@ -1310,7 +1387,7 @@
     </row>
     <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G12" s="4">
         <v>11</v>
@@ -1318,29 +1395,29 @@
     </row>
     <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G13" s="4">
         <v>12</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G14" s="4">
         <v>13</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G15" s="4">
         <v>14</v>
@@ -1348,52 +1425,52 @@
     </row>
     <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G16" s="4">
         <v>15</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>17</v>
+      <c r="I16" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G17" s="4">
         <v>16</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>17</v>
+      <c r="I17" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G18" s="4">
         <v>17</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>17</v>
+      <c r="I18" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D19" s="4">
         <v>18</v>
       </c>
-      <c r="G19" s="3">
-        <v>18</v>
+      <c r="G19" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="L19" s="3">
         <v>23</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
@@ -1403,8 +1480,8 @@
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>17</v>
+      <c r="C20" s="4">
+        <v>7</v>
       </c>
       <c r="D20" s="4">
         <v>19</v>
@@ -1415,8 +1492,11 @@
       <c r="H20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>17</v>
+      <c r="I20" s="4">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3">
+        <v>25</v>
       </c>
       <c r="L20" s="3">
         <v>24</v>
@@ -1435,7 +1515,7 @@
     </row>
     <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L21" s="4">
         <v>8</v>
@@ -1443,7 +1523,7 @@
     </row>
     <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L22" s="4">
         <v>9</v>
@@ -1451,7 +1531,7 @@
     </row>
     <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>17</v>
@@ -1459,15 +1539,17 @@
     </row>
     <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="J24" s="3">
+        <v>16</v>
+      </c>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>17</v>
@@ -1475,7 +1557,7 @@
     </row>
     <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>17</v>
@@ -1483,7 +1565,7 @@
     </row>
     <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>17</v>
@@ -1491,7 +1573,7 @@
     </row>
     <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>17</v>
@@ -1499,7 +1581,7 @@
     </row>
     <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>17</v>
@@ -1507,65 +1589,59 @@
     </row>
     <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="4">
-        <v>15</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="I31" s="4">
+        <v>6</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D32" s="4">
-        <v>17</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
     </row>
     <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="L33" s="4">
-        <v>15</v>
-      </c>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="D33" s="4">
+        <v>17</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>34</v>
+        <v>164</v>
+      </c>
+      <c r="L34" s="4">
+        <v>15</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
@@ -1575,116 +1651,113 @@
     </row>
     <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
     </row>
     <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>17</v>
+        <v>185</v>
+      </c>
+      <c r="J36" s="4">
+        <v>8</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>17</v>
+      <c r="A37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L38" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="I38" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S40" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
+      <c r="A40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="4">
+        <v>5</v>
+      </c>
+      <c r="J40" s="3">
+        <v>24</v>
+      </c>
     </row>
     <row r="41" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L41" s="4">
-        <v>14</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="4">
-        <v>13</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>159</v>
+        <v>89</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="4">
-        <v>16</v>
-      </c>
-      <c r="S43" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
     </row>
     <row r="44" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="L44" s="4">
+        <v>14</v>
+      </c>
       <c r="S44" s="4" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
@@ -1693,30 +1766,44 @@
       <c r="X44" s="4"/>
     </row>
     <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>17</v>
+      <c r="A45" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D46" s="4">
+        <v>16</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
     </row>
     <row r="47" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="4"/>
       <c r="S47" s="4" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
@@ -1725,16 +1812,16 @@
       <c r="X47" s="4"/>
     </row>
     <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M48" s="4" t="s">
+      <c r="A48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>17</v>
@@ -1742,15 +1829,23 @@
     </row>
     <row r="50" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="J50" s="4">
+        <v>15</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
     </row>
     <row r="51" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>17</v>
@@ -1758,7 +1853,7 @@
     </row>
     <row r="52" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>17</v>
@@ -1766,7 +1861,7 @@
     </row>
     <row r="53" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>17</v>
@@ -1774,61 +1869,37 @@
     </row>
     <row r="54" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S54" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="55" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S55" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="56" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S56" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="57" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D57" s="4">
-        <v>14</v>
+        <v>62</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
@@ -1837,414 +1908,423 @@
       <c r="X57" s="4"/>
     </row>
     <row r="58" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
     </row>
     <row r="59" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
     </row>
     <row r="60" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D60" s="4">
+        <v>14</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
     </row>
     <row r="61" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J61" s="4" t="s">
+      <c r="A61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S62" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
+        <v>206</v>
+      </c>
     </row>
     <row r="63" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S63" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
+        <v>204</v>
+      </c>
     </row>
     <row r="64" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S64" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-    </row>
-    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="J65" s="4">
+        <v>14</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+    </row>
+    <row r="66" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="S66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+    </row>
+    <row r="67" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="S67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+    </row>
+    <row r="68" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L68" s="4"/>
-      <c r="S68" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-    </row>
-    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L69" s="4"/>
-      <c r="S69" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-    </row>
-    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L70" s="4">
-        <v>18</v>
-      </c>
-      <c r="S70" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-    </row>
-    <row r="71" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="L71" s="4">
-        <v>20</v>
-      </c>
-      <c r="S71" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="4"/>
+      <c r="S71" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
     </row>
-    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="4"/>
+      <c r="S72" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+    </row>
+    <row r="73" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="L73" s="4">
+        <v>18</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+    </row>
+    <row r="74" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L74" s="4">
+        <v>20</v>
+      </c>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+    </row>
+    <row r="75" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="J76" s="3">
+        <v>17</v>
+      </c>
+      <c r="L76" s="4"/>
+    </row>
+    <row r="77" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J78" s="4">
+        <v>19</v>
+      </c>
+      <c r="S78" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+    </row>
+    <row r="79" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M74" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="L76" s="4">
+      <c r="M80" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L81" s="4">
         <v>19</v>
       </c>
-      <c r="S76" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="L77" s="4">
-        <v>21</v>
-      </c>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-    </row>
-    <row r="78" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S79" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-    </row>
-    <row r="80" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L81" s="4">
-        <v>11</v>
-      </c>
       <c r="S81" s="4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
-    </row>
-    <row r="82" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="L82" s="4">
+        <v>21</v>
+      </c>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+    </row>
+    <row r="83" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="L85" s="4">
+        <v>11</v>
+      </c>
+      <c r="S85" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+    </row>
+    <row r="86" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J86" s="3">
+        <v>13</v>
+      </c>
+      <c r="L86" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D83" s="4">
-        <v>9</v>
-      </c>
-      <c r="L83" s="4"/>
-      <c r="S83" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M86" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="S86" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S88" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
-    </row>
-    <row r="89" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S89" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
-    </row>
-    <row r="90" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L90" s="4">
+        <v>124</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S91" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+    </row>
+    <row r="92" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="4">
         <v>6</v>
       </c>
-      <c r="O90" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S90" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
-    </row>
-    <row r="91" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K92" s="4"/>
       <c r="S92" s="4" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
@@ -2252,87 +2332,105 @@
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
     </row>
-    <row r="93" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L95" s="4">
-        <v>13</v>
-      </c>
-      <c r="S95" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="L93" s="4">
+        <v>6</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S93" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+    </row>
+    <row r="94" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="4"/>
+      <c r="S95" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
     </row>
-    <row r="96" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="L96" s="4">
-        <v>12</v>
-      </c>
-      <c r="S96" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="T96" s="4"/>
-      <c r="U96" s="4"/>
-      <c r="V96" s="4"/>
-      <c r="W96" s="4"/>
-      <c r="X96" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M97" s="4" t="s">
-        <v>17</v>
+      <c r="A97" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L98" s="4">
-        <v>10</v>
+      <c r="A98" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M99" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="L99" s="4">
+        <v>13</v>
+      </c>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
     </row>
     <row r="100" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="L100" s="4">
+        <v>12</v>
+      </c>
+      <c r="S100" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
     </row>
     <row r="101" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="M101" s="4" t="s">
         <v>17</v>
@@ -2340,98 +2438,56 @@
     </row>
     <row r="102" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="K102" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L102" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="L102" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="103" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S103" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T103" s="4"/>
-      <c r="U103" s="4"/>
-      <c r="V103" s="4"/>
-      <c r="W103" s="4"/>
-      <c r="X103" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="104" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S104" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T104" s="4"/>
-      <c r="U104" s="4"/>
-      <c r="V104" s="4"/>
-      <c r="W104" s="4"/>
-      <c r="X104" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="105" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D105" s="4">
-        <v>7</v>
-      </c>
-      <c r="L105" s="4"/>
-      <c r="S105" s="3" t="s">
-        <v>155</v>
+        <v>138</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D106" s="4">
-        <v>12</v>
-      </c>
-      <c r="S106" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="T106" s="4"/>
-      <c r="U106" s="4"/>
-      <c r="V106" s="4"/>
-      <c r="W106" s="4"/>
-      <c r="X106" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="K106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L106" s="4"/>
     </row>
     <row r="107" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D107" s="4">
-        <v>6</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L107" s="4">
-        <v>3</v>
-      </c>
-      <c r="M107" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4" t="s">
         <v>17</v>
       </c>
       <c r="S107" s="4" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
@@ -2441,54 +2497,64 @@
     </row>
     <row r="108" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J108" s="4">
+        <v>20</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S108" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
     </row>
     <row r="109" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="J109" s="3">
+        <v>21</v>
+      </c>
+      <c r="L109" s="4"/>
     </row>
     <row r="110" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D110" s="4">
-        <v>8</v>
-      </c>
-      <c r="S110" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="T110" s="4"/>
-      <c r="U110" s="4"/>
-      <c r="V110" s="4"/>
-      <c r="W110" s="4"/>
-      <c r="X110" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="J110" s="3">
+        <v>18</v>
+      </c>
+      <c r="L110" s="4"/>
     </row>
     <row r="111" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J111" s="4" t="s">
-        <v>17</v>
+      <c r="D111" s="4">
+        <v>7</v>
+      </c>
+      <c r="L111" s="4"/>
+      <c r="S111" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K112" s="4"/>
+      <c r="A112" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D112" s="4">
+        <v>12</v>
+      </c>
       <c r="S112" s="4" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
@@ -2498,94 +2564,104 @@
     </row>
     <row r="113" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>116</v>
+        <v>34</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L113" s="4">
+        <v>3</v>
       </c>
       <c r="M113" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="S113" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
     </row>
     <row r="114" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S114" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T114" s="4"/>
-      <c r="U114" s="4"/>
-      <c r="V114" s="4"/>
-      <c r="W114" s="4"/>
-      <c r="X114" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="J114" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="115" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="M115" s="4" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="J115" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="M116" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D116" s="4">
+        <v>8</v>
+      </c>
+      <c r="S116" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="4"/>
+      <c r="X116" s="4"/>
     </row>
     <row r="117" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M117" s="4" t="s">
-        <v>17</v>
+        <v>71</v>
+      </c>
+      <c r="J117" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M118" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A118" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="4"/>
+      <c r="S118" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
     </row>
     <row r="119" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D119" s="4">
-        <v>11</v>
-      </c>
-      <c r="L119" s="3">
-        <v>17</v>
-      </c>
-      <c r="S119" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="T119" s="4"/>
-      <c r="U119" s="4"/>
-      <c r="V119" s="4"/>
-      <c r="W119" s="4"/>
-      <c r="X119" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="M119" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="120" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D120" s="4">
-        <v>10</v>
-      </c>
-      <c r="L120" s="4">
         <v>16</v>
       </c>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="S120" s="4" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
@@ -2597,9 +2673,6 @@
       <c r="A121" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L121" s="3">
-        <v>5</v>
-      </c>
       <c r="M121" s="4" t="s">
         <v>17</v>
       </c>
@@ -2613,49 +2686,52 @@
       </c>
     </row>
     <row r="123" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C123" s="4" t="s">
+      <c r="A123" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M123" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S124" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T124" s="4"/>
-      <c r="U124" s="4"/>
-      <c r="V124" s="4"/>
-      <c r="W124" s="4"/>
-      <c r="X124" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="M124" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="125" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>175</v>
+      <c r="A125" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D125" s="4">
+        <v>11</v>
       </c>
       <c r="L125" s="3">
-        <v>22</v>
-      </c>
-      <c r="S125" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="S125" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
     </row>
     <row r="126" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>17</v>
+        <v>142</v>
+      </c>
+      <c r="D126" s="4">
+        <v>10</v>
+      </c>
+      <c r="L126" s="4">
+        <v>16</v>
       </c>
       <c r="S126" s="4" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
@@ -2663,27 +2739,107 @@
       <c r="W126" s="4"/>
       <c r="X126" s="4"/>
     </row>
-    <row r="127" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S127" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="T127" s="4"/>
-      <c r="U127" s="4"/>
-      <c r="V127" s="4"/>
-      <c r="W127" s="4"/>
-      <c r="X127" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="L127" s="3">
+        <v>5</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M128" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C129" s="4"/>
+    </row>
+    <row r="130" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D130" s="4"/>
+      <c r="J130" s="3">
+        <v>23</v>
+      </c>
+      <c r="L130" s="4"/>
+    </row>
+    <row r="131" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D131" s="4"/>
+      <c r="J131" s="3">
+        <v>22</v>
+      </c>
+      <c r="L131" s="4"/>
+    </row>
+    <row r="132" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S132" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+    </row>
+    <row r="133" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C133" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L134" s="3">
+        <v>22</v>
+      </c>
+      <c r="S134" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S135" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:Y128">
-    <sortCondition ref="G2:G128"/>
-    <sortCondition ref="A2:A128"/>
+  <sortState ref="A2:AA135">
+    <sortCondition ref="G2:G135"/>
+    <sortCondition ref="A2:A135"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
